--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_5.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_5.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16066.06164136863</v>
+        <v>-16066.06164136866</v>
       </c>
     </row>
     <row r="7">
@@ -26314,22 +26316,22 @@
         <v>22686.24505295842</v>
       </c>
       <c r="C2" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="D2" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="E2" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="F2" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="G2" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="H2" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="I2" t="n">
         <v>22686.24505295842</v>
@@ -26338,19 +26340,19 @@
         <v>22686.24505295842</v>
       </c>
       <c r="K2" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="L2" t="n">
         <v>22686.24505295843</v>
       </c>
       <c r="M2" t="n">
+        <v>22686.24505295843</v>
+      </c>
+      <c r="N2" t="n">
+        <v>22686.24505295843</v>
+      </c>
+      <c r="O2" t="n">
         <v>22686.24505295842</v>
-      </c>
-      <c r="N2" t="n">
-        <v>22686.24505295842</v>
-      </c>
-      <c r="O2" t="n">
-        <v>22686.24505295843</v>
       </c>
       <c r="P2" t="n">
         <v>22686.24505295842</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="C4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="D4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="E4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="F4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="G4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="H4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="I4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="J4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="K4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="L4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="M4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="N4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="O4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="P4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26524,46 @@
         <v>-24553.10197881663</v>
       </c>
       <c r="C6" t="n">
-        <v>-24553.10197881662</v>
+        <v>-24553.10197881663</v>
       </c>
       <c r="D6" t="n">
-        <v>-24553.10197881662</v>
+        <v>-24553.10197881663</v>
       </c>
       <c r="E6" t="n">
-        <v>9074.498021183377</v>
+        <v>9074.498021183368</v>
       </c>
       <c r="F6" t="n">
-        <v>9074.49802118337</v>
+        <v>9074.498021183368</v>
       </c>
       <c r="G6" t="n">
-        <v>9074.498021183374</v>
+        <v>9074.498021183368</v>
       </c>
       <c r="H6" t="n">
-        <v>9074.498021183374</v>
+        <v>9074.498021183368</v>
       </c>
       <c r="I6" t="n">
-        <v>9074.498021183366</v>
+        <v>9074.498021183368</v>
       </c>
       <c r="J6" t="n">
-        <v>9074.49802118337</v>
+        <v>9074.498021183368</v>
       </c>
       <c r="K6" t="n">
-        <v>9074.498021183374</v>
+        <v>9074.498021183368</v>
       </c>
       <c r="L6" t="n">
-        <v>9074.498021183377</v>
+        <v>9074.498021183372</v>
       </c>
       <c r="M6" t="n">
-        <v>9074.49802118337</v>
+        <v>9074.498021183372</v>
       </c>
       <c r="N6" t="n">
-        <v>9074.49802118337</v>
+        <v>9074.498021183372</v>
       </c>
       <c r="O6" t="n">
-        <v>9074.498021183377</v>
+        <v>9074.498021183368</v>
       </c>
       <c r="P6" t="n">
-        <v>9074.49802118337</v>
+        <v>9074.498021183368</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_5.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16066.06164136866</v>
+        <v>-138666.0822199766</v>
       </c>
     </row>
     <row r="7">
@@ -26316,25 +26316,25 @@
         <v>22686.24505295842</v>
       </c>
       <c r="C2" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="D2" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="E2" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="F2" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="G2" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="H2" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="I2" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="J2" t="n">
         <v>22686.24505295842</v>
@@ -26343,13 +26343,13 @@
         <v>22686.24505295842</v>
       </c>
       <c r="L2" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="M2" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="N2" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="O2" t="n">
         <v>22686.24505295842</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="C4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="D4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="E4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="F4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="G4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="H4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="I4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="J4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="K4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="L4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="M4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="N4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="O4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="P4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24553.10197881663</v>
+        <v>-39206.45448057949</v>
       </c>
       <c r="C6" t="n">
-        <v>-24553.10197881663</v>
+        <v>-39206.45448057949</v>
       </c>
       <c r="D6" t="n">
-        <v>-24553.10197881663</v>
+        <v>-39206.45448057949</v>
       </c>
       <c r="E6" t="n">
-        <v>9074.498021183368</v>
+        <v>-5578.854480579483</v>
       </c>
       <c r="F6" t="n">
-        <v>9074.498021183368</v>
+        <v>-5578.854480579486</v>
       </c>
       <c r="G6" t="n">
-        <v>9074.498021183368</v>
+        <v>-5578.854480579483</v>
       </c>
       <c r="H6" t="n">
-        <v>9074.498021183368</v>
+        <v>-5578.85448057949</v>
       </c>
       <c r="I6" t="n">
-        <v>9074.498021183368</v>
+        <v>-5578.854480579483</v>
       </c>
       <c r="J6" t="n">
-        <v>9074.498021183368</v>
+        <v>-5578.85448057949</v>
       </c>
       <c r="K6" t="n">
-        <v>9074.498021183368</v>
+        <v>-5578.85448057949</v>
       </c>
       <c r="L6" t="n">
-        <v>9074.498021183372</v>
+        <v>-5578.85448057949</v>
       </c>
       <c r="M6" t="n">
-        <v>9074.498021183372</v>
+        <v>-5578.85448057949</v>
       </c>
       <c r="N6" t="n">
-        <v>9074.498021183372</v>
+        <v>-5578.85448057949</v>
       </c>
       <c r="O6" t="n">
-        <v>9074.498021183368</v>
+        <v>-5578.85448057949</v>
       </c>
       <c r="P6" t="n">
-        <v>9074.498021183368</v>
+        <v>-5578.85448057949</v>
       </c>
     </row>
   </sheetData>
